--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kshitij\Desktop\where\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C6EEB9-2BB9-480C-B2AC-A584A98308E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5403544-A648-4628-8C21-03D495ED6B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{90C510AD-8C09-47B0-B1DC-D34E9B8DE40C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>objects</t>
   </si>
@@ -33,24 +33,6 @@
     <t>locations</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>l</t>
   </si>
   <si>
@@ -106,6 +88,42 @@
   </si>
   <si>
     <t>pink rack 1st drawer</t>
+  </si>
+  <si>
+    <t>lal mirchi</t>
+  </si>
+  <si>
+    <t>cupboard near chimney</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>cupboard near fridge</t>
+  </si>
+  <si>
+    <t>dal</t>
+  </si>
+  <si>
+    <t>cupboard over fridge</t>
+  </si>
+  <si>
+    <t>cheeselings</t>
+  </si>
+  <si>
+    <t>drawer near sliding drawer</t>
+  </si>
+  <si>
+    <t>plates</t>
+  </si>
+  <si>
+    <t>drawer under stove</t>
+  </si>
+  <si>
+    <t>bournvita</t>
+  </si>
+  <si>
+    <t>sliding drawer</t>
   </si>
 </sst>
 </file>
@@ -460,7 +478,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,95 +497,95 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -575,7 +593,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -583,7 +601,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -591,7 +609,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -599,7 +617,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -607,7 +625,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -615,7 +633,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -623,7 +641,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -631,7 +649,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>20</v>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kshitij\Desktop\where\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5403544-A648-4628-8C21-03D495ED6B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10FAFD-5DFD-47A5-9897-66FC6B0F266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{90C510AD-8C09-47B0-B1DC-D34E9B8DE40C}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>dal</t>
   </si>
   <si>
-    <t>cupboard over fridge</t>
-  </si>
-  <si>
     <t>cheeselings</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>sliding drawer</t>
+  </si>
+  <si>
+    <t>cupboard over sink</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,31 +556,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kshitij\Desktop\where\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10FAFD-5DFD-47A5-9897-66FC6B0F266F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89778DA-C3A6-4CE3-B9A4-701D9AC3DDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{90C510AD-8C09-47B0-B1DC-D34E9B8DE40C}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
